--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs1-Itgb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H2">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I2">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J2">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>1306.063048284906</v>
+        <v>2187.895610491205</v>
       </c>
       <c r="R2">
-        <v>1306.063048284906</v>
+        <v>19691.06049442085</v>
       </c>
       <c r="S2">
-        <v>0.002952776414679464</v>
+        <v>0.003419196068749456</v>
       </c>
       <c r="T2">
-        <v>0.002952776414679464</v>
+        <v>0.003844165420094975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H3">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I3">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J3">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>1462.747516838213</v>
+        <v>2341.36344163538</v>
       </c>
       <c r="R3">
-        <v>1462.747516838213</v>
+        <v>21072.27097471842</v>
       </c>
       <c r="S3">
-        <v>0.0033070121492394</v>
+        <v>0.00365903228507143</v>
       </c>
       <c r="T3">
-        <v>0.0033070121492394</v>
+        <v>0.004113810702416721</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H4">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I4">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J4">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>752.5440446990185</v>
+        <v>1175.675074476157</v>
       </c>
       <c r="R4">
-        <v>752.5440446990185</v>
+        <v>10581.07567028542</v>
       </c>
       <c r="S4">
-        <v>0.001701368329126803</v>
+        <v>0.00183731964793014</v>
       </c>
       <c r="T4">
-        <v>0.001701368329126803</v>
+        <v>0.002065678748518607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H5">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I5">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J5">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>895.3157963373836</v>
+        <v>1343.216502983049</v>
       </c>
       <c r="R5">
-        <v>895.3157963373836</v>
+        <v>12088.94852684744</v>
       </c>
       <c r="S5">
-        <v>0.002024149883565419</v>
+        <v>0.002099149778653251</v>
       </c>
       <c r="T5">
-        <v>0.002024149883565419</v>
+        <v>0.002360051552600842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.5546309522848</v>
+        <v>15.829186</v>
       </c>
       <c r="H6">
-        <v>10.5546309522848</v>
+        <v>47.487558</v>
       </c>
       <c r="I6">
-        <v>0.01397944877686488</v>
+        <v>0.01520167221269649</v>
       </c>
       <c r="J6">
-        <v>0.01397944877686488</v>
+        <v>0.01552195334947967</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1766.676694584925</v>
+        <v>2679.186217303263</v>
       </c>
       <c r="R6">
-        <v>1766.676694584925</v>
+        <v>16075.11730381958</v>
       </c>
       <c r="S6">
-        <v>0.003994142000253794</v>
+        <v>0.004186974432292215</v>
       </c>
       <c r="T6">
-        <v>0.003994142000253794</v>
+        <v>0.003138246925848526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H7">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I7">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J7">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>17334.15655445052</v>
+        <v>21493.12153655753</v>
       </c>
       <c r="R7">
-        <v>17334.15655445052</v>
+        <v>193438.0938290178</v>
       </c>
       <c r="S7">
-        <v>0.03918944702520796</v>
+        <v>0.03358898674624274</v>
       </c>
       <c r="T7">
-        <v>0.03918944702520796</v>
+        <v>0.03776373707435853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H8">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I8">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J8">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>19413.68335150714</v>
+        <v>23000.73585367437</v>
       </c>
       <c r="R8">
-        <v>19413.68335150714</v>
+        <v>207006.6226830693</v>
       </c>
       <c r="S8">
-        <v>0.04389088750168887</v>
+        <v>0.03594505388288231</v>
       </c>
       <c r="T8">
-        <v>0.04389088750168887</v>
+        <v>0.0404126380534137</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H9">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I9">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J9">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>9987.815138068749</v>
+        <v>11549.42088738148</v>
       </c>
       <c r="R9">
-        <v>9987.815138068749</v>
+        <v>103944.7879864333</v>
       </c>
       <c r="S9">
-        <v>0.02258067480937915</v>
+        <v>0.01804918585014289</v>
       </c>
       <c r="T9">
-        <v>0.02258067480937915</v>
+        <v>0.02029250581449208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H10">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I10">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J10">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>11882.69142118727</v>
+        <v>13195.28930452165</v>
       </c>
       <c r="R10">
-        <v>11882.69142118727</v>
+        <v>118757.6037406948</v>
       </c>
       <c r="S10">
-        <v>0.02686465329332392</v>
+        <v>0.02062131351225795</v>
       </c>
       <c r="T10">
-        <v>0.02686465329332392</v>
+        <v>0.02318432132198616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>140.081771352162</v>
+        <v>155.500389</v>
       </c>
       <c r="H11">
-        <v>140.081771352162</v>
+        <v>466.501167</v>
       </c>
       <c r="I11">
-        <v>0.1855361836944317</v>
+        <v>0.1493359129474374</v>
       </c>
       <c r="J11">
-        <v>0.1855361836944317</v>
+        <v>0.1524822428572096</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>23447.45182497036</v>
+        <v>26319.38869087115</v>
       </c>
       <c r="R11">
-        <v>23447.45182497036</v>
+        <v>157916.3321452269</v>
       </c>
       <c r="S11">
-        <v>0.05301052106483179</v>
+        <v>0.04113137295591154</v>
       </c>
       <c r="T11">
-        <v>0.05301052106483179</v>
+        <v>0.03082904059295911</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H12">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I12">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J12">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>19118.02984090422</v>
+        <v>24757.71580939411</v>
       </c>
       <c r="R12">
-        <v>19118.02984090422</v>
+        <v>222819.442284547</v>
       </c>
       <c r="S12">
-        <v>0.04322246746318317</v>
+        <v>0.03869082426089399</v>
       </c>
       <c r="T12">
-        <v>0.04322246746318317</v>
+        <v>0.04349967820157755</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H13">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I13">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J13">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>21411.56256839542</v>
+        <v>26494.32194870553</v>
       </c>
       <c r="R13">
-        <v>21411.56256839542</v>
+        <v>238448.8975383498</v>
       </c>
       <c r="S13">
-        <v>0.04840773731131546</v>
+        <v>0.04140475487807124</v>
       </c>
       <c r="T13">
-        <v>0.04840773731131546</v>
+        <v>0.04655092124857413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H14">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I14">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J14">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>11015.66997247453</v>
+        <v>13303.66459830052</v>
       </c>
       <c r="R14">
-        <v>11015.66997247453</v>
+        <v>119732.9813847047</v>
       </c>
       <c r="S14">
-        <v>0.02490447190074713</v>
+        <v>0.02079068008379886</v>
       </c>
       <c r="T14">
-        <v>0.02490447190074713</v>
+        <v>0.0233747383394799</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H15">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I15">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J15">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>13105.54963934419</v>
+        <v>15199.52427889208</v>
       </c>
       <c r="R15">
-        <v>13105.54963934419</v>
+        <v>136795.7185100288</v>
       </c>
       <c r="S15">
-        <v>0.02962931837577333</v>
+        <v>0.02375348870030499</v>
       </c>
       <c r="T15">
-        <v>0.02962931837577333</v>
+        <v>0.02670579224832986</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.497709563478</v>
+        <v>179.1193723333333</v>
       </c>
       <c r="H16">
-        <v>154.497709563478</v>
+        <v>537.358117</v>
       </c>
       <c r="I16">
-        <v>0.2046298754309405</v>
+        <v>0.1720185728536685</v>
       </c>
       <c r="J16">
-        <v>0.2046298754309405</v>
+        <v>0.1756427994052303</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N16">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O16">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P16">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q16">
-        <v>25860.44970084541</v>
+        <v>30317.04558955073</v>
       </c>
       <c r="R16">
-        <v>25860.44970084541</v>
+        <v>181902.2735373044</v>
       </c>
       <c r="S16">
-        <v>0.05846588037992147</v>
+        <v>0.04737882493059947</v>
       </c>
       <c r="T16">
-        <v>0.05846588037992147</v>
+        <v>0.03551166936726885</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H17">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I17">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J17">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N17">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O17">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P17">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q17">
-        <v>49076.61114584975</v>
+        <v>86576.67724445401</v>
       </c>
       <c r="R17">
-        <v>49076.61114584975</v>
+        <v>779190.0952000861</v>
       </c>
       <c r="S17">
-        <v>0.1109534950048209</v>
+        <v>0.1353001638013102</v>
       </c>
       <c r="T17">
-        <v>0.1109534950048209</v>
+        <v>0.1521165211237538</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H18">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I18">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J18">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N18">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P18">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q18">
-        <v>54964.18506188889</v>
+        <v>92649.5149158055</v>
       </c>
       <c r="R18">
-        <v>54964.18506188889</v>
+        <v>833845.6342422495</v>
       </c>
       <c r="S18">
-        <v>0.1242642531813052</v>
+        <v>0.1447906635273811</v>
       </c>
       <c r="T18">
-        <v>0.1242642531813052</v>
+        <v>0.1627865880438196</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H19">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I19">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J19">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N19">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O19">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P19">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q19">
-        <v>28277.58698197412</v>
+        <v>46522.34822319501</v>
       </c>
       <c r="R19">
-        <v>28277.58698197412</v>
+        <v>418701.1340087552</v>
       </c>
       <c r="S19">
-        <v>0.06393059815455863</v>
+        <v>0.07270412234979939</v>
       </c>
       <c r="T19">
-        <v>0.06393059815455863</v>
+        <v>0.08174046396165664</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H20">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I20">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J20">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N20">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O20">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P20">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q20">
-        <v>33642.37679588777</v>
+        <v>53152.08874251502</v>
       </c>
       <c r="R20">
-        <v>33642.37679588777</v>
+        <v>478368.7986826352</v>
       </c>
       <c r="S20">
-        <v>0.07605943439492158</v>
+        <v>0.08306493783468381</v>
       </c>
       <c r="T20">
-        <v>0.07605943439492158</v>
+        <v>0.0933890175427165</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>396.600699876961</v>
+        <v>626.3728126666666</v>
       </c>
       <c r="H21">
-        <v>396.600699876961</v>
+        <v>1879.118438</v>
       </c>
       <c r="I21">
-        <v>0.525291617856004</v>
+        <v>0.6015416194555684</v>
       </c>
       <c r="J21">
-        <v>0.525291617856004</v>
+        <v>0.6142153852759307</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N21">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O21">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P21">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q21">
-        <v>66384.62459713212</v>
+        <v>106017.4165993129</v>
       </c>
       <c r="R21">
-        <v>66384.62459713212</v>
+        <v>636104.4995958777</v>
       </c>
       <c r="S21">
-        <v>0.1500838371203977</v>
+        <v>0.1656817319423939</v>
       </c>
       <c r="T21">
-        <v>0.1500838371203977</v>
+        <v>0.1241827946039841</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H22">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I22">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J22">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N22">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O22">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P22">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q22">
-        <v>6592.503331065134</v>
+        <v>8909.256761982875</v>
       </c>
       <c r="R22">
-        <v>6592.503331065134</v>
+        <v>53455.54057189725</v>
       </c>
       <c r="S22">
-        <v>0.01490447829086622</v>
+        <v>0.01392319430140097</v>
       </c>
       <c r="T22">
-        <v>0.01490447829086622</v>
+        <v>0.0104357985511849</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H23">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I23">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J23">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N23">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P23">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q23">
-        <v>7383.386192516798</v>
+        <v>9534.187999932163</v>
       </c>
       <c r="R23">
-        <v>7383.386192516798</v>
+        <v>57205.12799959298</v>
       </c>
       <c r="S23">
-        <v>0.01669252387039267</v>
+        <v>0.01489982336075322</v>
       </c>
       <c r="T23">
-        <v>0.01669252387039267</v>
+        <v>0.01116780759321973</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H24">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I24">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J24">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N24">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O24">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P24">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q24">
-        <v>3798.552549179294</v>
+        <v>4787.427268899642</v>
       </c>
       <c r="R24">
-        <v>3798.552549179294</v>
+        <v>28724.56361339785</v>
       </c>
       <c r="S24">
-        <v>0.008587852165227512</v>
+        <v>0.00748168807449207</v>
       </c>
       <c r="T24">
-        <v>0.008587852165227512</v>
+        <v>0.005607721035706974</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H25">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I25">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J25">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N25">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O25">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P25">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q25">
-        <v>4519.209373131185</v>
+        <v>5469.667133397644</v>
       </c>
       <c r="R25">
-        <v>4519.209373131185</v>
+        <v>32818.00280038586</v>
       </c>
       <c r="S25">
-        <v>0.0102171291558271</v>
+        <v>0.008547877819309015</v>
       </c>
       <c r="T25">
-        <v>0.0102171291558271</v>
+        <v>0.006406858155637083</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>53.2757126866682</v>
+        <v>64.45750049999999</v>
       </c>
       <c r="H26">
-        <v>53.2757126866682</v>
+        <v>128.915001</v>
       </c>
       <c r="I26">
-        <v>0.07056287424175893</v>
+        <v>0.06190222253062919</v>
       </c>
       <c r="J26">
-        <v>0.07056287424175893</v>
+        <v>0.04213761911214986</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N26">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O26">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P26">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q26">
-        <v>8917.503645218825</v>
+        <v>10909.8248603193</v>
       </c>
       <c r="R26">
-        <v>8917.503645218825</v>
+        <v>43639.29944127719</v>
       </c>
       <c r="S26">
-        <v>0.02016089075944543</v>
+        <v>0.01704963897467391</v>
       </c>
       <c r="T26">
-        <v>0.02016089075944543</v>
+        <v>0.008519433776401172</v>
       </c>
     </row>
   </sheetData>
